--- a/docs/offices.xlsx
+++ b/docs/offices.xlsx
@@ -214,16 +214,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,248 +420,249 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/offices.xlsx
+++ b/docs/offices.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t xml:space="preserve">what</t>
   </si>
@@ -49,88 +49,82 @@
     <t xml:space="preserve">why</t>
   </si>
   <si>
-    <t xml:space="preserve">Instructor</t>
+    <t xml:space="preserve">Coordinator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulanians Who Enjoy R Coding (TWERC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tulane University, New Orleans, LA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban Agriculture Instructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December </t>
+  </si>
+  <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmeriCorps STATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office of Community Alliances, Municipality of San Juan, San Juan, Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consejo de Educación Popular de América Latina y el Caribe (CEAAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Rico Committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternate Representative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Student Council Directive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Puerto Rico's University Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honors Program Student Association (AEPREH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Puerto Rico, Río Piedras Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vice-President</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Sciences College Student Action Committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaborator</t>
   </si>
   <si>
     <t xml:space="preserve">September</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howard-Tilton Memorial Library, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tulane University, New Orleans, LA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordinator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulanians Who Enjoy R Coding (TWERC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban Agriculture Instructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December </t>
-  </si>
-  <si>
-    <t xml:space="preserve">June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmeriCorps STATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office of Community Alliances, Municipality of San Juan, San Juan, Puerto Rico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consejo de Educación Popular de América Latina y el Caribe (CEAAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerto Rico Committee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternate Representative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Student Council Directive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Puerto Rico's University Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honors Program Student Association (AEPREH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> University of Puerto Rico, Río Piedras Campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vice-President</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social Sciences College Student Action Committee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collaborator</t>
   </si>
   <si>
     <t xml:space="preserve">La Nueva Escuela</t>
@@ -460,7 +454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -473,7 +467,6 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
@@ -489,76 +482,79 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>2011</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>2012</v>
@@ -575,36 +571,36 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>2012</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>2010</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>2011</v>
@@ -613,55 +609,33 @@
         <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>2010</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/offices.xlsx
+++ b/docs/offices.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t xml:space="preserve">what</t>
   </si>
@@ -49,13 +49,28 @@
     <t xml:space="preserve">why</t>
   </si>
   <si>
+    <t xml:space="preserve">Product Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connolly Alexander Institute for Data Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulane University, New Orleans, LA.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Instructor</t>
   </si>
   <si>
     <t xml:space="preserve">September</t>
   </si>
   <si>
-    <t xml:space="preserve">Present</t>
+    <t xml:space="preserve">December</t>
   </si>
   <si>
     <t xml:space="preserve">Howard-Tilton Memorial Library, </t>
@@ -65,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coordinator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January</t>
   </si>
   <si>
     <t xml:space="preserve">Tulanians Who Enjoy R Coding (TWERC)</t>
@@ -143,10 +155,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="166" formatCode="mm/yy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="167" formatCode="mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -214,16 +227,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,246 +437,275 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="C11" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>2015</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2012</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2012</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>2011</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>2011</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2015</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>38</v>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/offices.xlsx
+++ b/docs/offices.xlsx
@@ -437,16 +437,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,6 +709,7 @@
         <v>42</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
